--- a/spliced/struggle/2023-04-06_17-42-46/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-46/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1266735037978812</v>
+        <v>-0.03398093824483917</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.426815969603404</v>
+        <v>-2.852332382786031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2018442184341198</v>
+        <v>0.3628882449500415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1538507725511279</v>
+        <v>-0.1266735037978812</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2260856117521008</v>
+        <v>-1.426815969603404</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09954921262604832</v>
+        <v>0.2018442184341198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4955612986671659</v>
+        <v>-0.1538507725511279</v>
       </c>
       <c r="B4" t="n">
-        <v>3.062298653077098</v>
+        <v>0.2260856117521008</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5691612070920504</v>
+        <v>-0.09954921262604832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.454008883359481</v>
+        <v>0.4955612986671659</v>
       </c>
       <c r="B5" t="n">
-        <v>4.839717144868811</v>
+        <v>3.062298653077098</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2820296159812385</v>
+        <v>-0.5691612070920504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.137240985218359</v>
+        <v>1.454008883359481</v>
       </c>
       <c r="B6" t="n">
-        <v>3.374921506764936</v>
+        <v>4.839717144868811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5055315214760452</v>
+        <v>-0.2820296159812385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2921525373750798</v>
+        <v>1.137240985218359</v>
       </c>
       <c r="B7" t="n">
-        <v>1.951630319867816</v>
+        <v>3.374921506764936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7453397719227535</v>
+        <v>0.5055315214760452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1624465198541174</v>
+        <v>0.2921525373750798</v>
       </c>
       <c r="B8" t="n">
-        <v>1.506097605033798</v>
+        <v>1.951630319867816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4439899596024537</v>
+        <v>0.7453397719227535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2823693378239257</v>
+        <v>0.1624465198541174</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7324928641319217</v>
+        <v>1.506097605033798</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04955176400894934</v>
+        <v>0.4439899596024537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6597999164036341</v>
+        <v>0.2823693378239257</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.261745044163296</v>
+        <v>-0.7324928641319217</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.7145596061434063</v>
+        <v>-0.04955176400894934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.235334702292262</v>
+        <v>-0.6597999164036341</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.321111241165461</v>
+        <v>-4.261745044163296</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.293212206996212</v>
+        <v>-0.7145596061434063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.393702644170544</v>
+        <v>-1.235334702292262</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.912042505887086</v>
+        <v>-4.321111241165461</v>
       </c>
       <c r="C12" t="n">
-        <v>0.653996666171116</v>
+        <v>-0.293212206996212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5366638071683012</v>
+        <v>0.393702644170544</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.253858975001746</v>
+        <v>-1.912042505887086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0269684557403839</v>
+        <v>0.653996666171116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.129132547548839</v>
+        <v>0.5366638071683012</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7719840942596894</v>
+        <v>-2.253858975001746</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03628414990950613</v>
+        <v>0.0269684557403839</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3077981770038601</v>
+        <v>-0.129132547548839</v>
       </c>
       <c r="B15" t="n">
-        <v>1.624053824921043</v>
+        <v>-0.7719840942596894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1965552446793536</v>
+        <v>0.03628414990950613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.183255352536026</v>
+        <v>0.3077981770038601</v>
       </c>
       <c r="B16" t="n">
-        <v>3.720431172117896</v>
+        <v>1.624053824921043</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4516974523359422</v>
+        <v>0.1965552446793536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7590655258723678</v>
+        <v>1.183255352536026</v>
       </c>
       <c r="B17" t="n">
-        <v>3.928779942648755</v>
+        <v>3.720431172117896</v>
       </c>
       <c r="C17" t="n">
-        <v>1.171988606452941</v>
+        <v>0.4516974523359422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2291679642334281</v>
+        <v>0.7590655258723678</v>
       </c>
       <c r="B18" t="n">
-        <v>2.087977978647975</v>
+        <v>3.928779942648755</v>
       </c>
       <c r="C18" t="n">
-        <v>1.354070066189282</v>
+        <v>1.171988606452941</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.03184602683296017</v>
+        <v>0.2291679642334281</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9907392433711465</v>
+        <v>2.087977978647975</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4831009315592913</v>
+        <v>1.354070066189282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.04444044737183325</v>
+        <v>0.03184602683296017</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1521864691559109</v>
+        <v>0.9907392433711465</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2139835976520377</v>
+        <v>0.4831009315592913</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.04444044737183325</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1521864691559109</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.2139835976520377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-0.4428928944529248</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-2.088161782342548</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>-1.22169929499528</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.581159264457474</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.781517471585969</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.15734222470499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.5357818153439736</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.6552340047700065</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5789350879435637</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.4312272305999488</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.03695735122476339</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2086323031357354</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.1521366113910867</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3846518628451288</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3579327458021597</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3417635331956719</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5353018106246487</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2242374224018085</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1421539567563001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2858568746216445</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.08254160519157175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.06803667803808118</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1790894811250734</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08434615633925557</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.08848196070413178</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.1032362286837731</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.232543302129726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.06249837318853448</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04699299066346516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2259266389419836</v>
       </c>
     </row>
   </sheetData>
